--- a/data/US_Statistics.xlsx
+++ b/data/US_Statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufei_ye/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufei_ye/Documents/GitHub/ec1b1-47/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B408CB00-20F0-0142-B520-B908A85E1A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A76140-4B13-2344-93FB-210C83116D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15420" xr2:uid="{6A0A3BF7-CDCC-394F-A5E9-49739A483561}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
-  <si>
-    <t>United States</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>International Reserves and Liquidity, Reserves, Official Reserve Assets, US Dollar</t>
   </si>
@@ -1208,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1218,9 +1215,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1542,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57462CD1-B6B2-E04B-A007-BD7FEC7459CB}">
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1550,4118 +1544,4108 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="84" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4">
+        <v>21478.1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13.436946098585</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>21478.1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>13.436946098585</v>
+      <c r="B3" s="4">
+        <v>21395.7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13.4828059828805</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>21395.7</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="4">
+        <v>21344.7</v>
+      </c>
+      <c r="C4" s="5">
         <v>13.4828059828805</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>21344.7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>13.4828059828805</v>
+      <c r="B5" s="4">
+        <v>21278</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13.528665867176001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>21278</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="4">
+        <v>21234.3</v>
+      </c>
+      <c r="C6" s="5">
         <v>13.528665867176001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>21234.3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>13.528665867176001</v>
+      <c r="B7" s="4">
+        <v>21169.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13.5745257514715</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>21169.8</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="4">
+        <v>20999.4</v>
+      </c>
+      <c r="C8" s="5">
         <v>13.5745257514715</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>20999.4</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="4">
+        <v>20803.400000000001</v>
+      </c>
+      <c r="C9" s="5">
         <v>13.5745257514715</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>20803.400000000001</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
+        <v>20430</v>
+      </c>
+      <c r="C10" s="5">
         <v>13.5745257514715</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>20430</v>
-      </c>
-      <c r="C11" s="6">
-        <v>13.5745257514715</v>
+      <c r="B11" s="4">
+        <v>20068.2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>13.666245520062599</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
-        <v>20068.2</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="4">
+        <v>19558.2</v>
+      </c>
+      <c r="C12" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
-        <v>19558.2</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
+        <v>19358.8</v>
+      </c>
+      <c r="C13" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
-        <v>19358.8</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="4">
+        <v>19056.2</v>
+      </c>
+      <c r="C14" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
-        <v>19056.2</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="4">
+        <v>18978</v>
+      </c>
+      <c r="C15" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>18978</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
+        <v>18988.2</v>
+      </c>
+      <c r="C16" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
-        <v>18988.2</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="4">
+        <v>19165.099999999999</v>
+      </c>
+      <c r="C17" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
-        <v>19165.099999999999</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="4">
+        <v>19196.900000000001</v>
+      </c>
+      <c r="C18" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
-        <v>19196.900000000001</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="4">
+        <v>19307.900000000001</v>
+      </c>
+      <c r="C19" s="5">
         <v>13.666245520062599</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
-        <v>19307.900000000001</v>
-      </c>
-      <c r="C20" s="6">
-        <v>13.666245520062599</v>
+      <c r="B20" s="4">
+        <v>19234.599999999999</v>
+      </c>
+      <c r="C20" s="5">
+        <v>13.757965288653599</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
-        <v>19234.599999999999</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="4">
+        <v>19641.5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>13.7121054043581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19520.900000000001</v>
+      </c>
+      <c r="C22" s="5">
         <v>13.757965288653599</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5">
-        <v>19641.5</v>
-      </c>
-      <c r="C22" s="6">
-        <v>13.7121054043581</v>
-      </c>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
-        <v>19520.900000000001</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="4">
+        <v>19171.900000000001</v>
+      </c>
+      <c r="C23" s="5">
         <v>13.757965288653599</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
-        <v>19171.900000000001</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="4">
+        <v>18827.900000000001</v>
+      </c>
+      <c r="C24" s="5">
         <v>13.757965288653599</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5">
-        <v>18827.900000000001</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="4">
+        <v>18752.900000000001</v>
+      </c>
+      <c r="C25" s="5">
         <v>13.757965288653599</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
-        <v>18752.900000000001</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="4">
+        <v>18649.8</v>
+      </c>
+      <c r="C26" s="5">
         <v>13.757965288653599</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5">
-        <v>18649.8</v>
-      </c>
-      <c r="C27" s="6">
-        <v>13.757965288653599</v>
+      <c r="B27" s="4">
+        <v>18512</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13.8038251729491</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5">
-        <v>18512</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="4">
+        <v>18328.7</v>
+      </c>
+      <c r="C28" s="5">
         <v>13.8038251729491</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5">
-        <v>18328.7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>13.8038251729491</v>
+      <c r="B29" s="4">
+        <v>18192.400000000001</v>
+      </c>
+      <c r="C29" s="5">
+        <v>13.849685057244599</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
-        <v>18192.400000000001</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="4">
+        <v>18124.5</v>
+      </c>
+      <c r="C30" s="5">
         <v>13.849685057244599</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
-        <v>18124.5</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="4">
+        <v>18490.3</v>
+      </c>
+      <c r="C31" s="5">
         <v>13.849685057244599</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
-        <v>18490.3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>13.849685057244599</v>
+      <c r="B32" s="4">
+        <v>17784.5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>13.8955449415401</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
-        <v>17784.5</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="4">
+        <v>17638.599999999999</v>
+      </c>
+      <c r="C33" s="5">
         <v>13.8955449415401</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
-        <v>17638.599999999999</v>
-      </c>
-      <c r="C34" s="6">
-        <v>13.8955449415401</v>
+      <c r="B34" s="4">
+        <v>17610.3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>13.941404825835599</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5">
-        <v>17610.3</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="4">
+        <v>17435.7</v>
+      </c>
+      <c r="C35" s="5">
         <v>13.941404825835599</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5">
-        <v>17435.7</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="4">
+        <v>17286.2</v>
+      </c>
+      <c r="C36" s="5">
         <v>13.941404825835599</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5">
-        <v>17286.2</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="4">
+        <v>17220.400000000001</v>
+      </c>
+      <c r="C37" s="5">
         <v>13.941404825835599</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5">
-        <v>17220.400000000001</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="4">
+        <v>17177.900000000001</v>
+      </c>
+      <c r="C38" s="5">
         <v>13.941404825835599</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>17177.900000000001</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="4">
+        <v>17114.3</v>
+      </c>
+      <c r="C39" s="5">
         <v>13.941404825835599</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5">
-        <v>17114.3</v>
-      </c>
-      <c r="C40" s="6">
-        <v>13.941404825835599</v>
+      <c r="B40" s="4">
+        <v>17188.5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>13.9872647101311</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5">
-        <v>17188.5</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="4">
+        <v>17139.900000000001</v>
+      </c>
+      <c r="C41" s="5">
         <v>13.9872647101311</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5">
-        <v>17139.900000000001</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="4">
+        <v>17113.599999999999</v>
+      </c>
+      <c r="C42" s="5">
         <v>13.9872647101311</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5">
-        <v>17113.599999999999</v>
-      </c>
-      <c r="C43" s="6">
-        <v>13.9872647101311</v>
+      <c r="B43" s="4">
+        <v>17064.7</v>
+      </c>
+      <c r="C43" s="5">
+        <v>14.033124594426599</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5">
-        <v>17064.7</v>
-      </c>
-      <c r="C44" s="6">
-        <v>14.033124594426599</v>
+      <c r="B44" s="4">
+        <v>16815.099999999999</v>
+      </c>
+      <c r="C44" s="5">
+        <v>14.0789844787222</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5">
-        <v>16815.099999999999</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="4">
+        <v>16773.900000000001</v>
+      </c>
+      <c r="C45" s="5">
         <v>14.0789844787222</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5">
-        <v>16773.900000000001</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="4">
+        <v>16838</v>
+      </c>
+      <c r="C46" s="5">
         <v>14.0789844787222</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="5">
-        <v>16838</v>
-      </c>
-      <c r="C47" s="6">
-        <v>14.0789844787222</v>
+      <c r="B47" s="4">
+        <v>16947.8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>14.124844363017701</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5">
-        <v>16947.8</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="4">
+        <v>16817.099999999999</v>
+      </c>
+      <c r="C48" s="5">
         <v>14.124844363017701</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5">
-        <v>16817.099999999999</v>
-      </c>
-      <c r="C49" s="6">
-        <v>14.124844363017701</v>
+      <c r="B49" s="4">
+        <v>16843</v>
+      </c>
+      <c r="C49" s="5">
+        <v>14.1707042473132</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="5">
-        <v>16843</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="4">
+        <v>16880.900000000001</v>
+      </c>
+      <c r="C50" s="5">
         <v>14.1707042473132</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="5">
-        <v>16880.900000000001</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="4">
+        <v>16770.5</v>
+      </c>
+      <c r="C51" s="5">
         <v>14.1707042473132</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="5">
-        <v>16770.5</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="B52" s="4">
+        <v>16894</v>
+      </c>
+      <c r="C52" s="5">
         <v>14.1707042473132</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5">
-        <v>16894</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="B53" s="4">
+        <v>16898.900000000001</v>
+      </c>
+      <c r="C53" s="5">
         <v>14.1707042473132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5">
-        <v>16898.900000000001</v>
-      </c>
-      <c r="C54" s="6">
+      <c r="B54" s="4">
+        <v>16855.5</v>
+      </c>
+      <c r="C54" s="5">
         <v>14.1707042473132</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5">
-        <v>16855.5</v>
-      </c>
-      <c r="C55" s="6">
-        <v>14.1707042473132</v>
+      <c r="B55" s="4">
+        <v>16591.2</v>
+      </c>
+      <c r="C55" s="5">
+        <v>14.216564131608701</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="5">
-        <v>16591.2</v>
-      </c>
-      <c r="C56" s="6">
+      <c r="B56" s="4">
+        <v>16628.599999999999</v>
+      </c>
+      <c r="C56" s="5">
+        <v>14.2624240159042</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4">
+        <v>16690.400000000001</v>
+      </c>
+      <c r="C57" s="5">
         <v>14.216564131608701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="5">
-        <v>16628.599999999999</v>
-      </c>
-      <c r="C57" s="6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4">
+        <v>16521</v>
+      </c>
+      <c r="C58" s="5">
         <v>14.2624240159042</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="5">
-        <v>16690.400000000001</v>
-      </c>
-      <c r="C58" s="6">
-        <v>14.216564131608701</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5">
-        <v>16521</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="B59" s="4">
+        <v>16385.5</v>
+      </c>
+      <c r="C59" s="5">
         <v>14.2624240159042</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5">
-        <v>16385.5</v>
-      </c>
-      <c r="C60" s="6">
-        <v>14.2624240159042</v>
+      <c r="B60" s="4">
+        <v>17015.2</v>
+      </c>
+      <c r="C60" s="5">
+        <v>14.308283900199701</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="5">
-        <v>17015.2</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="4">
+        <v>16672.400000000001</v>
+      </c>
+      <c r="C61" s="5">
         <v>14.308283900199701</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="5">
-        <v>16672.400000000001</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="4">
+        <v>16342.9</v>
+      </c>
+      <c r="C62" s="5">
         <v>14.308283900199701</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="5">
-        <v>16342.9</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="4">
+        <v>15994.9</v>
+      </c>
+      <c r="C63" s="5">
         <v>14.308283900199701</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="5">
-        <v>15994.9</v>
-      </c>
-      <c r="C64" s="6">
-        <v>14.308283900199701</v>
+      <c r="B64" s="4">
+        <v>15828.9</v>
+      </c>
+      <c r="C64" s="5">
+        <v>14.3541437844952</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="5">
-        <v>15828.9</v>
-      </c>
-      <c r="C65" s="6">
-        <v>14.3541437844952</v>
+      <c r="B65" s="4">
+        <v>15592.3</v>
+      </c>
+      <c r="C65" s="5">
+        <v>14.400003668790699</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="5">
-        <v>15592.3</v>
-      </c>
-      <c r="C66" s="6">
+      <c r="B66" s="4">
+        <v>15420</v>
+      </c>
+      <c r="C66" s="5">
         <v>14.400003668790699</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="5">
-        <v>15420</v>
-      </c>
-      <c r="C67" s="6">
-        <v>14.400003668790699</v>
+      <c r="B67" s="4">
+        <v>15761.8</v>
+      </c>
+      <c r="C67" s="5">
+        <v>14.4917234373818</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="5">
-        <v>15761.8</v>
-      </c>
-      <c r="C68" s="6">
+      <c r="B68" s="4">
+        <v>15565.6</v>
+      </c>
+      <c r="C68" s="5">
         <v>14.4917234373818</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="5">
-        <v>15565.6</v>
-      </c>
-      <c r="C69" s="6">
+      <c r="B69" s="4">
+        <v>15850.4</v>
+      </c>
+      <c r="C69" s="5">
         <v>14.4917234373818</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="5">
-        <v>15850.4</v>
-      </c>
-      <c r="C70" s="6">
+      <c r="B70" s="4">
+        <v>15721.2</v>
+      </c>
+      <c r="C70" s="5">
         <v>14.4917234373818</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="5">
-        <v>15721.2</v>
-      </c>
-      <c r="C71" s="6">
-        <v>14.4917234373818</v>
+      <c r="B71" s="4">
+        <v>15639.4</v>
+      </c>
+      <c r="C71" s="5">
+        <v>14.5375833216773</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="5">
-        <v>15639.4</v>
-      </c>
-      <c r="C72" s="6">
+      <c r="B72" s="4">
+        <v>15547.9</v>
+      </c>
+      <c r="C72" s="5">
         <v>14.5375833216773</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="5">
-        <v>15547.9</v>
-      </c>
-      <c r="C73" s="6">
-        <v>14.5375833216773</v>
+      <c r="B73" s="4">
+        <v>15450</v>
+      </c>
+      <c r="C73" s="5">
+        <v>14.583443205972801</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="5">
-        <v>15450</v>
-      </c>
-      <c r="C74" s="6">
+      <c r="B74" s="4">
+        <v>15224.5</v>
+      </c>
+      <c r="C74" s="5">
         <v>14.583443205972801</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="5">
-        <v>15224.5</v>
-      </c>
-      <c r="C75" s="6">
-        <v>14.583443205972801</v>
+      <c r="B75" s="4">
+        <v>14961.8</v>
+      </c>
+      <c r="C75" s="5">
+        <v>14.675162974563801</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="5">
-        <v>14961.8</v>
-      </c>
-      <c r="C76" s="6">
-        <v>14.675162974563801</v>
+      <c r="B76" s="4">
+        <v>15025.9</v>
+      </c>
+      <c r="C76" s="5">
+        <v>14.7210228588593</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="5">
-        <v>15025.9</v>
-      </c>
-      <c r="C77" s="6">
-        <v>14.7210228588593</v>
+      <c r="B77" s="4">
+        <v>14913.9</v>
+      </c>
+      <c r="C77" s="5">
+        <v>14.8127426274503</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="5">
-        <v>14913.9</v>
-      </c>
-      <c r="C78" s="6">
+      <c r="B78" s="4">
+        <v>14904.5</v>
+      </c>
+      <c r="C78" s="5">
         <v>14.8127426274503</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="5">
-        <v>14904.5</v>
-      </c>
-      <c r="C79" s="6">
-        <v>14.8127426274503</v>
+      <c r="B79" s="4">
+        <v>14957.8</v>
+      </c>
+      <c r="C79" s="5">
+        <v>14.8586025117459</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="5">
-        <v>14957.8</v>
-      </c>
-      <c r="C80" s="6">
-        <v>14.8586025117459</v>
+      <c r="B80" s="4">
+        <v>15148.2</v>
+      </c>
+      <c r="C80" s="5">
+        <v>14.904462396041399</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="5">
-        <v>15148.2</v>
-      </c>
-      <c r="C81" s="6">
-        <v>14.904462396041399</v>
+      <c r="B81" s="4">
+        <v>15014.6</v>
+      </c>
+      <c r="C81" s="5">
+        <v>14.996182164632399</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="5">
-        <v>15014.6</v>
-      </c>
-      <c r="C82" s="6">
+      <c r="B82" s="4">
+        <v>14876</v>
+      </c>
+      <c r="C82" s="5">
         <v>14.996182164632399</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="5">
-        <v>14876</v>
-      </c>
-      <c r="C83" s="6">
-        <v>14.996182164632399</v>
+      <c r="B83" s="4">
+        <v>14879.6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>15.087901933223399</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="5">
-        <v>14879.6</v>
-      </c>
-      <c r="C84" s="6">
+      <c r="B84" s="4">
+        <v>14715.1</v>
+      </c>
+      <c r="C84" s="5">
         <v>15.087901933223399</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="5">
-        <v>14715.1</v>
-      </c>
-      <c r="C85" s="6">
+      <c r="B85" s="4">
+        <v>14881.7</v>
+      </c>
+      <c r="C85" s="5">
         <v>15.087901933223399</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="5">
-        <v>14881.7</v>
-      </c>
-      <c r="C86" s="6">
+      <c r="B86" s="4">
+        <v>14195.8</v>
+      </c>
+      <c r="C86" s="5">
         <v>15.087901933223399</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="5">
-        <v>14195.8</v>
-      </c>
-      <c r="C87" s="6">
+      <c r="B87" s="4">
+        <v>13997.5</v>
+      </c>
+      <c r="C87" s="5">
         <v>15.087901933223399</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="5">
-        <v>13997.5</v>
-      </c>
-      <c r="C88" s="6">
-        <v>15.087901933223399</v>
+      <c r="B88" s="4">
+        <v>13854.6</v>
+      </c>
+      <c r="C88" s="5">
+        <v>15.1337618175189</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="5">
-        <v>13854.6</v>
-      </c>
-      <c r="C89" s="6">
-        <v>15.1337618175189</v>
+      <c r="B89" s="4">
+        <v>13905.7</v>
+      </c>
+      <c r="C89" s="5">
+        <v>15.1796217018144</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="5">
-        <v>13905.7</v>
-      </c>
-      <c r="C90" s="6">
-        <v>15.1796217018144</v>
+      <c r="B90" s="4">
+        <v>13942.5</v>
+      </c>
+      <c r="C90" s="5">
+        <v>15.22548158611</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="5">
-        <v>13942.5</v>
-      </c>
-      <c r="C91" s="6">
-        <v>15.22548158611</v>
+      <c r="B91" s="4">
+        <v>14274.3</v>
+      </c>
+      <c r="C91" s="5">
+        <v>15.271341470405501</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="5">
-        <v>14274.3</v>
-      </c>
-      <c r="C92" s="6">
-        <v>15.271341470405501</v>
+      <c r="B92" s="4">
+        <v>14223.6</v>
+      </c>
+      <c r="C92" s="5">
+        <v>15.317201354701</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="5">
-        <v>14223.6</v>
-      </c>
-      <c r="C93" s="6">
-        <v>15.317201354701</v>
+      <c r="B93" s="4">
+        <v>14604.8</v>
+      </c>
+      <c r="C93" s="5">
+        <v>15.363061238996499</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="5">
-        <v>14604.8</v>
-      </c>
-      <c r="C94" s="6">
-        <v>15.363061238996499</v>
+      <c r="B94" s="4">
+        <v>14648.6</v>
+      </c>
+      <c r="C94" s="5">
+        <v>15.408921123292</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="5">
-        <v>14648.6</v>
-      </c>
-      <c r="C95" s="6">
-        <v>15.408921123292</v>
+      <c r="B95" s="4">
+        <v>14926.7</v>
+      </c>
+      <c r="C95" s="5">
+        <v>15.454781007587499</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="5">
-        <v>14926.7</v>
-      </c>
-      <c r="C96" s="6">
-        <v>15.454781007587499</v>
+      <c r="B96" s="4">
+        <v>15437.6</v>
+      </c>
+      <c r="C96" s="5">
+        <v>15.500640891883</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="5">
-        <v>15437.6</v>
-      </c>
-      <c r="C97" s="6">
-        <v>15.500640891883</v>
+      <c r="B97" s="4">
+        <v>14830.2</v>
+      </c>
+      <c r="C97" s="5">
+        <v>15.546500776178499</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="5">
-        <v>14830.2</v>
-      </c>
-      <c r="C98" s="6">
-        <v>15.546500776178499</v>
+      <c r="B98" s="4">
+        <v>14620</v>
+      </c>
+      <c r="C98" s="5">
+        <v>15.638220544769601</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="5">
-        <v>14620</v>
-      </c>
-      <c r="C99" s="6">
-        <v>15.638220544769601</v>
+      <c r="B99" s="4">
+        <v>14789.8</v>
+      </c>
+      <c r="C99" s="5">
+        <v>15.6840804290651</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="5">
-        <v>14789.8</v>
-      </c>
-      <c r="C100" s="6">
-        <v>15.6840804290651</v>
+      <c r="B100" s="4">
+        <v>13926.5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>15.729940313360601</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="5">
-        <v>13926.5</v>
-      </c>
-      <c r="C101" s="6">
-        <v>15.729940313360601</v>
+      <c r="B101" s="4">
+        <v>13839.7</v>
+      </c>
+      <c r="C101" s="5">
+        <v>15.7758001976561</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="5">
-        <v>13839.7</v>
-      </c>
-      <c r="C102" s="6">
-        <v>15.7758001976561</v>
+      <c r="B102" s="4">
+        <v>14348.3</v>
+      </c>
+      <c r="C102" s="5">
+        <v>15.821660081951601</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="5">
-        <v>14348.3</v>
-      </c>
-      <c r="C103" s="6">
-        <v>15.821660081951601</v>
+      <c r="B103" s="4">
+        <v>14062.6</v>
+      </c>
+      <c r="C103" s="5">
+        <v>15.913379850542601</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="5">
-        <v>14062.6</v>
-      </c>
-      <c r="C104" s="6">
-        <v>15.913379850542601</v>
+      <c r="B104" s="4">
+        <v>14365.8</v>
+      </c>
+      <c r="C104" s="5">
+        <v>16.005099619133698</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="5">
-        <v>14365.8</v>
-      </c>
-      <c r="C105" s="6">
-        <v>16.005099619133698</v>
+      <c r="B105" s="4">
+        <v>14427</v>
+      </c>
+      <c r="C105" s="5">
+        <v>16.050959503429201</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="5">
-        <v>14427</v>
-      </c>
-      <c r="C106" s="6">
-        <v>16.050959503429201</v>
+      <c r="B106" s="4">
+        <v>14633.9</v>
+      </c>
+      <c r="C106" s="5">
+        <v>16.0968193877247</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="5">
-        <v>14633.9</v>
-      </c>
-      <c r="C107" s="6">
-        <v>16.0968193877247</v>
+      <c r="B107" s="4">
+        <v>14427.5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>16.188539156315699</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="5">
-        <v>14427.5</v>
-      </c>
-      <c r="C108" s="6">
-        <v>16.188539156315699</v>
+      <c r="B108" s="4">
+        <v>15659.7</v>
+      </c>
+      <c r="C108" s="5">
+        <v>16.234399040611201</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="5">
-        <v>15659.7</v>
-      </c>
-      <c r="C109" s="6">
-        <v>16.234399040611201</v>
+      <c r="B109" s="4">
+        <v>15709.9</v>
+      </c>
+      <c r="C109" s="5">
+        <v>16.2802589249067</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="5">
-        <v>15709.9</v>
-      </c>
-      <c r="C110" s="6">
-        <v>16.2802589249067</v>
+      <c r="B110" s="4">
+        <v>15454</v>
+      </c>
+      <c r="C110" s="5">
+        <v>16.3261188092022</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="5">
-        <v>15454</v>
-      </c>
-      <c r="C111" s="6">
-        <v>16.3261188092022</v>
+      <c r="B111" s="4">
+        <v>15499.4</v>
+      </c>
+      <c r="C111" s="5">
+        <v>16.417838577793301</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="5">
-        <v>15499.4</v>
-      </c>
-      <c r="C112" s="6">
-        <v>16.417838577793301</v>
+      <c r="B112" s="4">
+        <v>15758.4</v>
+      </c>
+      <c r="C112" s="5">
+        <v>16.555418230679798</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="5">
-        <v>15758.4</v>
-      </c>
-      <c r="C113" s="6">
-        <v>16.555418230679798</v>
+      <c r="B113" s="4">
+        <v>15947.6</v>
+      </c>
+      <c r="C113" s="5">
+        <v>16.6471379992708</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="5">
-        <v>15947.6</v>
-      </c>
-      <c r="C114" s="6">
-        <v>16.6471379992708</v>
+      <c r="B114" s="4">
+        <v>16069.9</v>
+      </c>
+      <c r="C114" s="5">
+        <v>16.692997883566299</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="5">
-        <v>16069.9</v>
-      </c>
-      <c r="C115" s="6">
-        <v>16.692997883566299</v>
+      <c r="B115" s="4">
+        <v>16057.1</v>
+      </c>
+      <c r="C115" s="5">
+        <v>16.784717652157401</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="5">
-        <v>16057.1</v>
-      </c>
-      <c r="C116" s="6">
-        <v>16.784717652157401</v>
+      <c r="B116" s="4">
+        <v>15935.8</v>
+      </c>
+      <c r="C116" s="5">
+        <v>16.876437420748399</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="5">
-        <v>15935.8</v>
-      </c>
-      <c r="C117" s="6">
-        <v>16.876437420748399</v>
+      <c r="B117" s="4">
+        <v>16195.1</v>
+      </c>
+      <c r="C117" s="5">
+        <v>16.968157189339401</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="5">
-        <v>16195.1</v>
-      </c>
-      <c r="C118" s="6">
-        <v>16.968157189339401</v>
+      <c r="B118" s="4">
+        <v>16743.2</v>
+      </c>
+      <c r="C118" s="5">
+        <v>17.0140170736349</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="5">
-        <v>16743.2</v>
-      </c>
-      <c r="C119" s="6">
-        <v>17.0140170736349</v>
+      <c r="B119" s="4">
+        <v>16315.8</v>
+      </c>
+      <c r="C119" s="5">
+        <v>17.105736842225902</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="5">
-        <v>16315.8</v>
-      </c>
-      <c r="C120" s="6">
-        <v>17.105736842225902</v>
+      <c r="B120" s="4">
+        <v>16000.3</v>
+      </c>
+      <c r="C120" s="5">
+        <v>17.197456610817</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="5">
-        <v>16000.3</v>
-      </c>
-      <c r="C121" s="6">
-        <v>17.197456610817</v>
+      <c r="B121" s="4">
+        <v>16963.599999999999</v>
+      </c>
+      <c r="C121" s="5">
+        <v>17.289176379408001</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="5">
-        <v>16963.599999999999</v>
-      </c>
-      <c r="C122" s="6">
-        <v>17.289176379408001</v>
+      <c r="B122" s="4">
+        <v>17396.53</v>
+      </c>
+      <c r="C122" s="5">
+        <v>17.3350362637035</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="5">
-        <v>17396.53</v>
-      </c>
-      <c r="C123" s="6">
-        <v>17.3350362637035</v>
+      <c r="B123" s="4">
+        <v>17669.63</v>
+      </c>
+      <c r="C123" s="5">
+        <v>17.426756032294499</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="5">
-        <v>17669.63</v>
-      </c>
-      <c r="C124" s="6">
-        <v>17.426756032294499</v>
+      <c r="B124" s="4">
+        <v>17350.63</v>
+      </c>
+      <c r="C124" s="5">
+        <v>17.5184758008856</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="5">
-        <v>17350.63</v>
-      </c>
-      <c r="C125" s="6">
-        <v>17.5184758008856</v>
+      <c r="B125" s="4">
+        <v>16918.71</v>
+      </c>
+      <c r="C125" s="5">
+        <v>17.656055453772101</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="5">
-        <v>16918.71</v>
-      </c>
-      <c r="C126" s="6">
-        <v>17.656055453772101</v>
+      <c r="B126" s="4">
+        <v>16164.89</v>
+      </c>
+      <c r="C126" s="5">
+        <v>17.7019153380676</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="5">
-        <v>16164.89</v>
-      </c>
-      <c r="C127" s="6">
-        <v>17.7019153380676</v>
+      <c r="B127" s="4">
+        <v>16328.29</v>
+      </c>
+      <c r="C127" s="5">
+        <v>17.793635106658598</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="5">
-        <v>16328.29</v>
-      </c>
-      <c r="C128" s="6">
-        <v>17.793635106658598</v>
+      <c r="B128" s="4">
+        <v>16065.39</v>
+      </c>
+      <c r="C128" s="5">
+        <v>17.8853548752496</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="5">
-        <v>16065.39</v>
-      </c>
-      <c r="C129" s="6">
+      <c r="B129" s="4">
+        <v>15795.79</v>
+      </c>
+      <c r="C129" s="5">
         <v>17.8853548752496</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="5">
-        <v>15795.79</v>
-      </c>
-      <c r="C130" s="6">
-        <v>17.8853548752496</v>
+      <c r="B130" s="4">
+        <v>15527.69</v>
+      </c>
+      <c r="C130" s="5">
+        <v>17.977074643840702</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="5">
-        <v>15527.69</v>
-      </c>
-      <c r="C131" s="6">
-        <v>17.977074643840702</v>
+      <c r="B131" s="4">
+        <v>15119.89</v>
+      </c>
+      <c r="C131" s="5">
+        <v>18.0687944124317</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="5">
-        <v>15119.89</v>
-      </c>
-      <c r="C132" s="6">
-        <v>18.0687944124317</v>
+      <c r="B132" s="4">
+        <v>14890.29</v>
+      </c>
+      <c r="C132" s="5">
+        <v>18.160514181022702</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="5">
-        <v>14890.29</v>
-      </c>
-      <c r="C133" s="6">
-        <v>18.160514181022702</v>
+      <c r="B133" s="4">
+        <v>14486.89</v>
+      </c>
+      <c r="C133" s="5">
+        <v>18.2522339496137</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="5">
-        <v>14486.89</v>
-      </c>
-      <c r="C134" s="6">
+      <c r="B134" s="4">
+        <v>14698.99</v>
+      </c>
+      <c r="C134" s="5">
         <v>18.2522339496137</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="5">
-        <v>14698.99</v>
-      </c>
-      <c r="C135" s="6">
-        <v>18.2522339496137</v>
+      <c r="B135" s="4">
+        <v>14533.79</v>
+      </c>
+      <c r="C135" s="5">
+        <v>18.298093833909299</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="5">
-        <v>14533.79</v>
-      </c>
-      <c r="C136" s="6">
-        <v>18.298093833909299</v>
+      <c r="B136" s="4">
+        <v>14341.59</v>
+      </c>
+      <c r="C136" s="5">
+        <v>18.343953718204801</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="5">
-        <v>14341.59</v>
-      </c>
-      <c r="C137" s="6">
-        <v>18.343953718204801</v>
+      <c r="B137" s="4">
+        <v>14307.13</v>
+      </c>
+      <c r="C137" s="5">
+        <v>18.389813602500301</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="5">
-        <v>14307.13</v>
-      </c>
-      <c r="C138" s="6">
-        <v>18.389813602500301</v>
+      <c r="B138" s="4">
+        <v>13810.51</v>
+      </c>
+      <c r="C138" s="5">
+        <v>18.481533371091299</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="5">
-        <v>13810.51</v>
-      </c>
-      <c r="C139" s="6">
-        <v>18.481533371091299</v>
+      <c r="B139" s="4">
+        <v>13503.91</v>
+      </c>
+      <c r="C139" s="5">
+        <v>18.6191130239778</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="5">
-        <v>13503.91</v>
-      </c>
-      <c r="C140" s="6">
-        <v>18.6191130239778</v>
+      <c r="B140" s="4">
+        <v>13282.51</v>
+      </c>
+      <c r="C140" s="5">
+        <v>18.664972908273398</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="5">
-        <v>13282.51</v>
-      </c>
-      <c r="C141" s="6">
-        <v>18.664972908273398</v>
+      <c r="B141" s="4">
+        <v>12127.81</v>
+      </c>
+      <c r="C141" s="5">
+        <v>18.710832792568901</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="5">
-        <v>12127.81</v>
-      </c>
-      <c r="C142" s="6">
+      <c r="B142" s="4">
+        <v>12130.21</v>
+      </c>
+      <c r="C142" s="5">
         <v>18.710832792568901</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="5">
-        <v>12130.21</v>
-      </c>
-      <c r="C143" s="6">
-        <v>18.710832792568901</v>
+      <c r="B143" s="4">
+        <v>12145.9</v>
+      </c>
+      <c r="C143" s="5">
+        <v>18.7566926768644</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="5">
-        <v>12145.9</v>
-      </c>
-      <c r="C144" s="6">
+      <c r="B144" s="4">
+        <v>12130.3</v>
+      </c>
+      <c r="C144" s="5">
         <v>18.7566926768644</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="5">
-        <v>12130.3</v>
-      </c>
-      <c r="C145" s="6">
-        <v>18.7566926768644</v>
+      <c r="B145" s="4">
+        <v>12314.5652264574</v>
+      </c>
+      <c r="C145" s="5">
+        <v>18.848412445455399</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="5">
-        <v>12314.5652264574</v>
-      </c>
-      <c r="C146" s="6">
+      <c r="B146" s="4">
+        <v>13084.0302943402</v>
+      </c>
+      <c r="C146" s="5">
         <v>18.848412445455399</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="5">
-        <v>13084.0302943402</v>
-      </c>
-      <c r="C147" s="6">
-        <v>18.848412445455399</v>
+      <c r="B147" s="4">
+        <v>12534.8188508733</v>
+      </c>
+      <c r="C147" s="5">
+        <v>18.9401322140464</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="5">
-        <v>12534.8188508733</v>
-      </c>
-      <c r="C148" s="6">
-        <v>18.9401322140464</v>
+      <c r="B148" s="4">
+        <v>12475.161720429</v>
+      </c>
+      <c r="C148" s="5">
+        <v>18.985992098341899</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="5">
-        <v>12475.161720429</v>
-      </c>
-      <c r="C149" s="6">
-        <v>18.985992098341899</v>
+      <c r="B149" s="4">
+        <v>12472.705664601999</v>
+      </c>
+      <c r="C149" s="5">
+        <v>19.031851982637399</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="5">
-        <v>12472.705664601999</v>
-      </c>
-      <c r="C150" s="6">
-        <v>19.031851982637399</v>
+      <c r="B150" s="4">
+        <v>13344.516532637201</v>
+      </c>
+      <c r="C150" s="5">
+        <v>19.077711866933001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="5">
-        <v>13344.516532637201</v>
-      </c>
-      <c r="C151" s="6">
-        <v>19.077711866933001</v>
+      <c r="B151" s="4">
+        <v>13338.5965500153</v>
+      </c>
+      <c r="C151" s="5">
+        <v>19.1235717512285</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="5">
-        <v>13338.5965500153</v>
-      </c>
-      <c r="C152" s="6">
-        <v>19.1235717512285</v>
+      <c r="B152" s="4">
+        <v>13089.590850004401</v>
+      </c>
+      <c r="C152" s="5">
+        <v>19.215291519819498</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="5">
-        <v>13089.590850004401</v>
-      </c>
-      <c r="C153" s="6">
-        <v>19.215291519819498</v>
+      <c r="B153" s="4">
+        <v>13123.150863037999</v>
+      </c>
+      <c r="C153" s="5">
+        <v>19.261151404115001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="5">
-        <v>13123.150863037999</v>
-      </c>
-      <c r="C154" s="6">
-        <v>19.261151404115001</v>
+      <c r="B154" s="4">
+        <v>13216.7965934605</v>
+      </c>
+      <c r="C154" s="5">
+        <v>19.3070112884105</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="5">
-        <v>13216.7965934605</v>
-      </c>
-      <c r="C155" s="6">
-        <v>19.3070112884105</v>
+      <c r="B155" s="4">
+        <v>13312.465178233</v>
+      </c>
+      <c r="C155" s="5">
+        <v>19.398731057001498</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="5">
-        <v>13312.465178233</v>
-      </c>
-      <c r="C156" s="6">
-        <v>19.398731057001498</v>
+      <c r="B156" s="4">
+        <v>13306.3509064832</v>
+      </c>
+      <c r="C156" s="5">
+        <v>19.444590941297101</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="5">
-        <v>13306.3509064832</v>
-      </c>
-      <c r="C157" s="6">
-        <v>19.444590941297101</v>
+      <c r="B157" s="4">
+        <v>13150.322352122401</v>
+      </c>
+      <c r="C157" s="5">
+        <v>19.4904508255926</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="5">
-        <v>13150.322352122401</v>
-      </c>
-      <c r="C158" s="6">
-        <v>19.4904508255926</v>
+      <c r="B158" s="4">
+        <v>13053.3395064615</v>
+      </c>
+      <c r="C158" s="5">
+        <v>19.536310709888099</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="5">
-        <v>13053.3395064615</v>
-      </c>
-      <c r="C159" s="6">
-        <v>19.536310709888099</v>
+      <c r="B159" s="4">
+        <v>13195.6212711269</v>
+      </c>
+      <c r="C159" s="5">
+        <v>19.6738903627746</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="5">
-        <v>13195.6212711269</v>
-      </c>
-      <c r="C160" s="6">
-        <v>19.6738903627746</v>
+      <c r="B160" s="4">
+        <v>13201.411728941899</v>
+      </c>
+      <c r="C160" s="5">
+        <v>19.857329899956699</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="5">
-        <v>13201.411728941899</v>
-      </c>
-      <c r="C161" s="6">
-        <v>19.857329899956699</v>
+      <c r="B161" s="4">
+        <v>13172.785153118701</v>
+      </c>
+      <c r="C161" s="5">
+        <v>19.9949095528432</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="5">
-        <v>13172.785153118701</v>
-      </c>
-      <c r="C162" s="6">
-        <v>19.9949095528432</v>
+      <c r="B162" s="4">
+        <v>13184.886727404401</v>
+      </c>
+      <c r="C162" s="5">
+        <v>20.132489205729701</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="5">
-        <v>13184.886727404401</v>
-      </c>
-      <c r="C163" s="6">
-        <v>20.132489205729701</v>
+      <c r="B163" s="4">
+        <v>13183.1597233707</v>
+      </c>
+      <c r="C163" s="5">
+        <v>20.270068858616298</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="5">
-        <v>13183.1597233707</v>
-      </c>
-      <c r="C164" s="6">
-        <v>20.270068858616298</v>
+      <c r="B164" s="4">
+        <v>13187.864470345399</v>
+      </c>
+      <c r="C164" s="5">
+        <v>20.315928742911801</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="5">
-        <v>13187.864470345399</v>
-      </c>
-      <c r="C165" s="6">
-        <v>20.315928742911801</v>
+      <c r="B165" s="4">
+        <v>13193.413659084899</v>
+      </c>
+      <c r="C165" s="5">
+        <v>20.682807817275901</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="5">
-        <v>13193.413659084899</v>
-      </c>
-      <c r="C166" s="6">
-        <v>20.682807817275901</v>
+      <c r="B166" s="4">
+        <v>13197.997771521799</v>
+      </c>
+      <c r="C166" s="5">
+        <v>20.7286677015714</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="5">
-        <v>13197.997771521799</v>
-      </c>
-      <c r="C167" s="6">
-        <v>20.7286677015714</v>
+      <c r="B167" s="4">
+        <v>14367.4612494209</v>
+      </c>
+      <c r="C167" s="5">
+        <v>20.9121072387534</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="5">
-        <v>14367.4612494209</v>
-      </c>
-      <c r="C168" s="6">
-        <v>20.9121072387534</v>
+      <c r="B168" s="4">
+        <v>14372.7691690847</v>
+      </c>
+      <c r="C168" s="5">
+        <v>21.04968689164</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="5">
-        <v>14372.7691690847</v>
-      </c>
-      <c r="C169" s="6">
-        <v>21.04968689164</v>
+      <c r="B169" s="4">
+        <v>14377.9564542107</v>
+      </c>
+      <c r="C169" s="5">
+        <v>21.187266544526501</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="5">
-        <v>14377.9564542107</v>
-      </c>
-      <c r="C170" s="6">
-        <v>21.187266544526501</v>
+      <c r="B170" s="4">
+        <v>14565.394116477901</v>
+      </c>
+      <c r="C170" s="5">
+        <v>21.370706081708601</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="5">
-        <v>14565.394116477901</v>
-      </c>
-      <c r="C171" s="6">
-        <v>21.370706081708601</v>
+      <c r="B171" s="4">
+        <v>14643.155803031699</v>
+      </c>
+      <c r="C171" s="5">
+        <v>21.645865387481599</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="5">
-        <v>14643.155803031699</v>
-      </c>
-      <c r="C172" s="6">
-        <v>21.645865387481599</v>
+      <c r="B172" s="4">
+        <v>14588.257377317401</v>
+      </c>
+      <c r="C172" s="5">
+        <v>21.921024693254701</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="5">
-        <v>14588.257377317401</v>
-      </c>
-      <c r="C173" s="6">
-        <v>21.921024693254701</v>
+      <c r="B173" s="4">
+        <v>14642.024190820899</v>
+      </c>
+      <c r="C173" s="5">
+        <v>22.012744461845699</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="5">
-        <v>14642.024190820899</v>
-      </c>
-      <c r="C174" s="6">
-        <v>22.012744461845699</v>
+      <c r="B174" s="4">
+        <v>14869.480792751599</v>
+      </c>
+      <c r="C174" s="5">
+        <v>22.287903767618801</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="5">
-        <v>14869.480792751599</v>
-      </c>
-      <c r="C175" s="6">
-        <v>22.287903767618801</v>
+      <c r="B175" s="4">
+        <v>14946.217146028401</v>
+      </c>
+      <c r="C175" s="5">
+        <v>22.471343304800801</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="5">
-        <v>14946.217146028401</v>
-      </c>
-      <c r="C176" s="6">
-        <v>22.471343304800801</v>
+      <c r="B176" s="4">
+        <v>14911.906846366899</v>
+      </c>
+      <c r="C176" s="5">
+        <v>22.6547828419829</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="5">
-        <v>14911.906846366899</v>
-      </c>
-      <c r="C177" s="6">
-        <v>22.6547828419829</v>
+      <c r="B177" s="4">
+        <v>15460.135901043799</v>
+      </c>
+      <c r="C177" s="5">
+        <v>22.929942147756002</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="5">
-        <v>15460.135901043799</v>
-      </c>
-      <c r="C178" s="6">
-        <v>22.929942147756002</v>
+      <c r="B178" s="4">
+        <v>15893.180269946901</v>
+      </c>
+      <c r="C178" s="5">
+        <v>23.205101453529</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="5">
-        <v>15893.180269946901</v>
-      </c>
-      <c r="C179" s="6">
-        <v>23.205101453529</v>
+      <c r="B179" s="4">
+        <v>15889.695145730901</v>
+      </c>
+      <c r="C179" s="5">
+        <v>23.434400875006599</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="5">
-        <v>15889.695145730901</v>
-      </c>
-      <c r="C180" s="6">
-        <v>23.434400875006599</v>
+      <c r="B180" s="4">
+        <v>15839.2019939946</v>
+      </c>
+      <c r="C180" s="5">
+        <v>23.617840412188599</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="5">
-        <v>15839.2019939946</v>
-      </c>
-      <c r="C181" s="6">
-        <v>23.617840412188599</v>
+      <c r="B181" s="4">
+        <v>15883.847549129299</v>
+      </c>
+      <c r="C181" s="5">
+        <v>23.801279949370699</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="5">
-        <v>15883.847549129299</v>
-      </c>
-      <c r="C182" s="6">
-        <v>23.801279949370699</v>
+      <c r="B182" s="4">
+        <v>15948.0125553614</v>
+      </c>
+      <c r="C182" s="5">
+        <v>23.8929997179617</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="5">
-        <v>15948.0125553614</v>
-      </c>
-      <c r="C183" s="6">
-        <v>23.8929997179617</v>
+      <c r="B183" s="4">
+        <v>16132.295325883601</v>
+      </c>
+      <c r="C183" s="5">
+        <v>24.0764392551438</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="5">
-        <v>16132.295325883601</v>
-      </c>
-      <c r="C184" s="6">
-        <v>24.0764392551438</v>
+      <c r="B184" s="4">
+        <v>16255.8009837789</v>
+      </c>
+      <c r="C184" s="5">
+        <v>24.168159023734798</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="5">
-        <v>16255.8009837789</v>
-      </c>
-      <c r="C185" s="6">
-        <v>24.168159023734798</v>
+      <c r="B185" s="4">
+        <v>16182.631647334199</v>
+      </c>
+      <c r="C185" s="5">
+        <v>24.2598787923258</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="5">
-        <v>16182.631647334199</v>
-      </c>
-      <c r="C186" s="6">
-        <v>24.2598787923258</v>
+      <c r="B186" s="4">
+        <v>16279.852581736401</v>
+      </c>
+      <c r="C186" s="5">
+        <v>24.397458445212301</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="5">
-        <v>16279.852581736401</v>
-      </c>
-      <c r="C187" s="6">
-        <v>24.397458445212301</v>
+      <c r="B187" s="4">
+        <v>16241.471277583099</v>
+      </c>
+      <c r="C187" s="5">
+        <v>24.580897982394401</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="5">
-        <v>16241.471277583099</v>
-      </c>
-      <c r="C188" s="6">
-        <v>24.580897982394401</v>
+      <c r="B188" s="4">
+        <v>16083.555814948801</v>
+      </c>
+      <c r="C188" s="5">
+        <v>24.856057288167499</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="5">
-        <v>16083.555814948801</v>
-      </c>
-      <c r="C189" s="6">
-        <v>24.856057288167499</v>
+      <c r="B189" s="4">
+        <v>16116.6849755356</v>
+      </c>
+      <c r="C189" s="5">
+        <v>24.901917172463001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="5">
-        <v>16116.6849755356</v>
-      </c>
-      <c r="C190" s="6">
-        <v>24.901917172463001</v>
+      <c r="B190" s="4">
+        <v>16291.692801860099</v>
+      </c>
+      <c r="C190" s="5">
+        <v>25.039496825349499</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="5">
-        <v>16291.692801860099</v>
-      </c>
-      <c r="C191" s="6">
-        <v>25.039496825349499</v>
+      <c r="B191" s="4">
+        <v>16567.6899488405</v>
+      </c>
+      <c r="C191" s="5">
+        <v>25.177076478236</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="5">
-        <v>16567.6899488405</v>
-      </c>
-      <c r="C192" s="6">
-        <v>25.177076478236</v>
+      <c r="B192" s="4">
+        <v>16591.9447334418</v>
+      </c>
+      <c r="C192" s="5">
+        <v>25.360516015418099</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="5">
-        <v>16591.9447334418</v>
-      </c>
-      <c r="C193" s="6">
-        <v>25.360516015418099</v>
+      <c r="B193" s="4">
+        <v>16225.896589341</v>
+      </c>
+      <c r="C193" s="5">
+        <v>25.452235784009101</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="5">
-        <v>16225.896589341</v>
-      </c>
-      <c r="C194" s="6">
-        <v>25.452235784009101</v>
+      <c r="B194" s="4">
+        <v>16622.458386539001</v>
+      </c>
+      <c r="C194" s="5">
+        <v>25.4980956683046</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="5">
-        <v>16622.458386539001</v>
-      </c>
-      <c r="C195" s="6">
-        <v>25.4980956683046</v>
+      <c r="B195" s="4">
+        <v>16661.4878566279</v>
+      </c>
+      <c r="C195" s="5">
+        <v>25.589815436895599</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="5">
-        <v>16661.4878566279</v>
-      </c>
-      <c r="C196" s="6">
-        <v>25.589815436895599</v>
+      <c r="B196" s="4">
+        <v>16941.163613708399</v>
+      </c>
+      <c r="C196" s="5">
+        <v>25.635675321191201</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="5">
-        <v>16941.163613708399</v>
-      </c>
-      <c r="C197" s="6">
-        <v>25.635675321191201</v>
+      <c r="B197" s="4">
+        <v>17436.869839021001</v>
+      </c>
+      <c r="C197" s="5">
+        <v>25.727395089782199</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="5">
-        <v>17436.869839021001</v>
-      </c>
-      <c r="C198" s="6">
-        <v>25.727395089782199</v>
+      <c r="B198" s="4">
+        <v>17955.3301562899</v>
+      </c>
+      <c r="C198" s="5">
+        <v>25.910834626964199</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="5">
-        <v>17955.3301562899</v>
-      </c>
-      <c r="C199" s="6">
-        <v>25.910834626964199</v>
+      <c r="B199" s="4">
+        <v>18476.495244305101</v>
+      </c>
+      <c r="C199" s="5">
+        <v>26.0484142798508</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="5">
-        <v>18476.495244305101</v>
-      </c>
-      <c r="C200" s="6">
-        <v>26.0484142798508</v>
+      <c r="B200" s="4">
+        <v>18245.401582520099</v>
+      </c>
+      <c r="C200" s="5">
+        <v>26.185993932737301</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="5">
-        <v>18245.401582520099</v>
-      </c>
-      <c r="C201" s="6">
-        <v>26.185993932737301</v>
+      <c r="B201" s="4">
+        <v>18586.282936480999</v>
+      </c>
+      <c r="C201" s="5">
+        <v>26.323573585623802</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="5">
-        <v>18586.282936480999</v>
-      </c>
-      <c r="C202" s="6">
-        <v>26.323573585623802</v>
+      <c r="B202" s="4">
+        <v>18945.884113566699</v>
+      </c>
+      <c r="C202" s="5">
+        <v>26.415293354214899</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="5">
-        <v>18945.884113566699</v>
-      </c>
-      <c r="C203" s="6">
-        <v>26.415293354214899</v>
+      <c r="B203" s="4">
+        <v>19013.033516949999</v>
+      </c>
+      <c r="C203" s="5">
+        <v>26.5528730071014</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="5">
-        <v>19013.033516949999</v>
-      </c>
-      <c r="C204" s="6">
-        <v>26.5528730071014</v>
+      <c r="B204" s="4">
+        <v>19416.174320653299</v>
+      </c>
+      <c r="C204" s="5">
+        <v>26.598732891396899</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="5">
-        <v>19416.174320653299</v>
-      </c>
-      <c r="C205" s="6">
-        <v>26.598732891396899</v>
+      <c r="B205" s="4">
+        <v>18747.001646116601</v>
+      </c>
+      <c r="C205" s="5">
+        <v>26.690452659987901</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="5">
-        <v>18747.001646116601</v>
-      </c>
-      <c r="C206" s="6">
-        <v>26.690452659987901</v>
+      <c r="B206" s="4">
+        <v>19087.408887956401</v>
+      </c>
+      <c r="C206" s="5">
+        <v>26.828032312874502</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="5">
-        <v>19087.408887956401</v>
-      </c>
-      <c r="C207" s="6">
-        <v>26.828032312874502</v>
+      <c r="B207" s="4">
+        <v>19121.967547398901</v>
+      </c>
+      <c r="C207" s="5">
+        <v>27.1031916186475</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="5">
-        <v>19121.967547398901</v>
-      </c>
-      <c r="C208" s="6">
-        <v>27.1031916186475</v>
+      <c r="B208" s="4">
+        <v>19120.6483408891</v>
+      </c>
+      <c r="C208" s="5">
+        <v>27.2866311558296</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="5">
-        <v>19120.6483408891</v>
-      </c>
-      <c r="C209" s="6">
-        <v>27.2866311558296</v>
+      <c r="B209" s="4">
+        <v>18867.7039702285</v>
+      </c>
+      <c r="C209" s="5">
+        <v>27.515930577307198</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="5">
-        <v>18867.7039702285</v>
-      </c>
-      <c r="C210" s="6">
-        <v>27.515930577307198</v>
+      <c r="B210" s="4">
+        <v>19194.3326140315</v>
+      </c>
+      <c r="C210" s="5">
+        <v>27.653510230193699</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="5">
-        <v>19194.3326140315</v>
-      </c>
-      <c r="C211" s="6">
-        <v>27.653510230193699</v>
+      <c r="B211" s="4">
+        <v>19155.733747689501</v>
+      </c>
+      <c r="C211" s="5">
+        <v>27.8369497673757</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="5">
-        <v>19155.733747689501</v>
-      </c>
-      <c r="C212" s="6">
-        <v>27.8369497673757</v>
+      <c r="B212" s="4">
+        <v>18926.987005463601</v>
+      </c>
+      <c r="C212" s="5">
+        <v>27.9745294202623</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="5">
-        <v>18926.987005463601</v>
-      </c>
-      <c r="C213" s="6">
-        <v>27.9745294202623</v>
+      <c r="B213" s="4">
+        <v>19055.547093941401</v>
+      </c>
+      <c r="C213" s="5">
+        <v>28.066249188853298</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="5">
-        <v>19055.547093941401</v>
-      </c>
-      <c r="C214" s="6">
-        <v>28.066249188853298</v>
+      <c r="B214" s="4">
+        <v>18988.4721127064</v>
+      </c>
+      <c r="C214" s="5">
+        <v>28.1579689574443</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="5">
-        <v>18988.4721127064</v>
-      </c>
-      <c r="C215" s="6">
-        <v>28.1579689574443</v>
+      <c r="B215" s="4">
+        <v>19047.451168635002</v>
+      </c>
+      <c r="C215" s="5">
+        <v>28.249688726035298</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="5">
-        <v>19047.451168635002</v>
-      </c>
-      <c r="C216" s="6">
-        <v>28.249688726035298</v>
+      <c r="B216" s="4">
+        <v>19155.041877684602</v>
+      </c>
+      <c r="C216" s="5">
+        <v>28.387268378921899</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="5">
-        <v>19155.041877684602</v>
-      </c>
-      <c r="C217" s="6">
-        <v>28.387268378921899</v>
+      <c r="B217" s="4">
+        <v>19311.498332897401</v>
+      </c>
+      <c r="C217" s="5">
+        <v>28.478988147512901</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="5">
-        <v>19311.498332897401</v>
-      </c>
-      <c r="C218" s="6">
-        <v>28.478988147512901</v>
+      <c r="B218" s="4">
+        <v>19454.830572037299</v>
+      </c>
+      <c r="C218" s="5">
+        <v>28.662427684694901</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="5">
-        <v>19454.830572037299</v>
-      </c>
-      <c r="C219" s="6">
-        <v>28.662427684694901</v>
+      <c r="B219" s="4">
+        <v>19372.9803452409</v>
+      </c>
+      <c r="C219" s="5">
+        <v>28.845867221877</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="5">
-        <v>19372.9803452409</v>
-      </c>
-      <c r="C220" s="6">
-        <v>28.845867221877</v>
+      <c r="B220" s="4">
+        <v>19191.324438417701</v>
+      </c>
+      <c r="C220" s="5">
+        <v>29.075166643354599</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="5">
-        <v>19191.324438417701</v>
-      </c>
-      <c r="C221" s="6">
-        <v>29.075166643354599</v>
+      <c r="B221" s="4">
+        <v>18842.7243833469</v>
+      </c>
+      <c r="C221" s="5">
+        <v>29.304466064832098</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="5">
-        <v>18842.7243833469</v>
-      </c>
-      <c r="C222" s="6">
-        <v>29.304466064832098</v>
+      <c r="B222" s="4">
+        <v>18965.237123956998</v>
+      </c>
+      <c r="C222" s="5">
+        <v>29.5796253706052</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="5">
-        <v>18965.237123956998</v>
-      </c>
-      <c r="C223" s="6">
-        <v>29.5796253706052</v>
+      <c r="B223" s="4">
+        <v>18863.950130241901</v>
+      </c>
+      <c r="C223" s="5">
+        <v>29.9006445606738</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="5">
-        <v>18863.950130241901</v>
-      </c>
-      <c r="C224" s="6">
-        <v>29.9006445606738</v>
+      <c r="B224" s="4">
+        <v>18832.0902399238</v>
+      </c>
+      <c r="C224" s="5">
+        <v>30.1299439821513</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="5">
-        <v>18832.0902399238</v>
-      </c>
-      <c r="C225" s="6">
-        <v>30.1299439821513</v>
+      <c r="B225" s="4">
+        <v>18782.594747846699</v>
+      </c>
+      <c r="C225" s="5">
+        <v>30.2675236350379</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="5">
-        <v>18782.594747846699</v>
-      </c>
-      <c r="C226" s="6">
-        <v>30.2675236350379</v>
+      <c r="B226" s="4">
+        <v>18849.931344037799</v>
+      </c>
+      <c r="C226" s="5">
+        <v>30.496823056515399</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="5">
-        <v>18849.931344037799</v>
-      </c>
-      <c r="C227" s="6">
-        <v>30.496823056515399</v>
+      <c r="B227" s="4">
+        <v>18934.684340976899</v>
+      </c>
+      <c r="C227" s="5">
+        <v>30.771982362288501</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="5">
-        <v>18934.684340976899</v>
-      </c>
-      <c r="C228" s="6">
-        <v>30.771982362288501</v>
+      <c r="B228" s="4">
+        <v>17967.470655191399</v>
+      </c>
+      <c r="C228" s="5">
+        <v>30.909562015174998</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="5">
-        <v>17967.470655191399</v>
-      </c>
-      <c r="C229" s="6">
-        <v>30.909562015174998</v>
+      <c r="B229" s="4">
+        <v>18650.304987890901</v>
+      </c>
+      <c r="C229" s="5">
+        <v>31.047141668061599</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="5">
-        <v>18650.304987890901</v>
-      </c>
-      <c r="C230" s="6">
-        <v>31.047141668061599</v>
+      <c r="B230" s="4">
+        <v>20468.7711339788</v>
+      </c>
+      <c r="C230" s="5">
+        <v>31.322300973834601</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="5">
-        <v>20468.7711339788</v>
-      </c>
-      <c r="C231" s="6">
-        <v>31.322300973834601</v>
+      <c r="B231" s="4">
+        <v>20291.452886156301</v>
+      </c>
+      <c r="C231" s="5">
+        <v>31.6891800481987</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="5">
-        <v>20291.452886156301</v>
-      </c>
-      <c r="C232" s="6">
-        <v>31.6891800481987</v>
+      <c r="B232" s="4">
+        <v>21657.919347052401</v>
+      </c>
+      <c r="C232" s="5">
+        <v>32.010199238267298</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="5">
-        <v>21657.919347052401</v>
-      </c>
-      <c r="C233" s="6">
-        <v>32.010199238267298</v>
+      <c r="B233" s="4">
+        <v>21402.958947869502</v>
+      </c>
+      <c r="C233" s="5">
+        <v>32.377078312631397</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="5">
-        <v>21402.958947869502</v>
-      </c>
-      <c r="C234" s="6">
-        <v>32.377078312631397</v>
+      <c r="B234" s="4">
+        <v>22298.9198216109</v>
+      </c>
+      <c r="C234" s="5">
+        <v>32.789817271291</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="5">
-        <v>22298.9198216109</v>
-      </c>
-      <c r="C235" s="6">
-        <v>32.789817271291</v>
+      <c r="B235" s="4">
+        <v>21267.654044818399</v>
+      </c>
+      <c r="C235" s="5">
+        <v>33.156696345655099</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="5">
-        <v>21267.654044818399</v>
-      </c>
-      <c r="C236" s="6">
-        <v>33.156696345655099</v>
+      <c r="B236" s="4">
+        <v>20044.300721638199</v>
+      </c>
+      <c r="C236" s="5">
+        <v>33.523575420019199</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="5">
-        <v>20044.300721638199</v>
-      </c>
-      <c r="C237" s="6">
-        <v>33.523575420019199</v>
+      <c r="B237" s="4">
+        <v>20045.582151962299</v>
+      </c>
+      <c r="C237" s="5">
+        <v>33.844594610087803</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="5">
-        <v>20045.582151962299</v>
-      </c>
-      <c r="C238" s="6">
-        <v>33.844594610087803</v>
+      <c r="B238" s="4">
+        <v>18557.297355285202</v>
+      </c>
+      <c r="C238" s="5">
+        <v>34.211473684451903</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="5">
-        <v>18557.297355285202</v>
-      </c>
-      <c r="C239" s="6">
-        <v>34.211473684451903</v>
+      <c r="B239" s="4">
+        <v>18016.0106125323</v>
+      </c>
+      <c r="C239" s="5">
+        <v>34.486632990224997</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="5">
-        <v>18016.0106125323</v>
-      </c>
-      <c r="C240" s="6">
-        <v>34.486632990224997</v>
+      <c r="B240" s="4">
+        <v>19284.814916974301</v>
+      </c>
+      <c r="C240" s="5">
+        <v>34.807652180293502</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="5">
-        <v>19284.814916974301</v>
-      </c>
-      <c r="C241" s="6">
-        <v>34.807652180293502</v>
+      <c r="B241" s="4">
+        <v>18956.025732735699</v>
+      </c>
+      <c r="C241" s="5">
+        <v>35.174531254657602</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="5">
-        <v>18956.025732735699</v>
-      </c>
-      <c r="C242" s="6">
-        <v>35.174531254657602</v>
+      <c r="B242" s="4">
+        <v>20989.324125524399</v>
+      </c>
+      <c r="C242" s="5">
+        <v>35.678989981908302</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="5">
-        <v>20989.324125524399</v>
-      </c>
-      <c r="C243" s="6">
-        <v>35.678989981908302</v>
+      <c r="B243" s="4">
+        <v>20886.581492989</v>
+      </c>
+      <c r="C243" s="5">
+        <v>36.183448709158903</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="5">
-        <v>20886.581492989</v>
-      </c>
-      <c r="C244" s="6">
-        <v>36.183448709158903</v>
+      <c r="B244" s="4">
+        <v>21491.057911144399</v>
+      </c>
+      <c r="C244" s="5">
+        <v>36.733767320704999</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="5">
-        <v>21491.057911144399</v>
-      </c>
-      <c r="C245" s="6">
-        <v>36.733767320704999</v>
+      <c r="B245" s="4">
+        <v>21644.9078200193</v>
+      </c>
+      <c r="C245" s="5">
+        <v>37.146506279364701</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="5">
-        <v>21644.9078200193</v>
-      </c>
-      <c r="C246" s="6">
-        <v>37.146506279364701</v>
+      <c r="B246" s="4">
+        <v>21917.557875765899</v>
+      </c>
+      <c r="C246" s="5">
+        <v>37.513385353728701</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="5">
-        <v>21917.557875765899</v>
-      </c>
-      <c r="C247" s="6">
-        <v>37.513385353728701</v>
+      <c r="B247" s="4">
+        <v>21942.977902932202</v>
+      </c>
+      <c r="C247" s="5">
+        <v>37.926124312388403</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="5">
-        <v>21942.977902932202</v>
-      </c>
-      <c r="C248" s="6">
+      <c r="B248" s="4">
+        <v>21844.600636645999</v>
+      </c>
+      <c r="C248" s="5">
         <v>37.926124312388403</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="5">
-        <v>21844.600636645999</v>
-      </c>
-      <c r="C249" s="6">
-        <v>37.926124312388403</v>
+      <c r="B249" s="4">
+        <v>22691.4259369102</v>
+      </c>
+      <c r="C249" s="5">
+        <v>38.201283618161398</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="5">
-        <v>22691.4259369102</v>
-      </c>
-      <c r="C250" s="6">
-        <v>38.201283618161398</v>
+      <c r="B250" s="4">
+        <v>22994.402033851002</v>
+      </c>
+      <c r="C250" s="5">
+        <v>38.522302808230002</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="5">
-        <v>22994.402033851002</v>
-      </c>
-      <c r="C251" s="6">
-        <v>38.522302808230002</v>
+      <c r="B251" s="4">
+        <v>23966.3889154758</v>
+      </c>
+      <c r="C251" s="5">
+        <v>38.889181882594102</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="5">
-        <v>23966.3889154758</v>
-      </c>
-      <c r="C252" s="6">
-        <v>38.889181882594102</v>
+      <c r="B252" s="4">
+        <v>25673.0258480913</v>
+      </c>
+      <c r="C252" s="5">
+        <v>39.210201072662699</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="5">
-        <v>25673.0258480913</v>
-      </c>
-      <c r="C253" s="6">
-        <v>39.210201072662699</v>
+      <c r="B253" s="4">
+        <v>26755.967203354299</v>
+      </c>
+      <c r="C253" s="5">
+        <v>39.577080147026798</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="5">
-        <v>26755.967203354299</v>
-      </c>
-      <c r="C254" s="6">
-        <v>39.577080147026798</v>
+      <c r="B254" s="4">
+        <v>28315.8056068365</v>
+      </c>
+      <c r="C254" s="5">
+        <v>39.898099337095402</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="5">
-        <v>28315.8056068365</v>
-      </c>
-      <c r="C255" s="6">
-        <v>39.898099337095402</v>
+      <c r="B255" s="4">
+        <v>29681.791792656299</v>
+      </c>
+      <c r="C255" s="5">
+        <v>40.310838295754998</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="5">
-        <v>29681.791792656299</v>
-      </c>
-      <c r="C256" s="6">
-        <v>40.310838295754998</v>
+      <c r="B256" s="4">
+        <v>30409.446697576699</v>
+      </c>
+      <c r="C256" s="5">
+        <v>40.585997601528</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="5">
-        <v>30409.446697576699</v>
-      </c>
-      <c r="C257" s="6">
-        <v>40.585997601528</v>
+      <c r="B257" s="4">
+        <v>29692.779278080099</v>
+      </c>
+      <c r="C257" s="5">
+        <v>40.861156907301101</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="5">
-        <v>29692.779278080099</v>
-      </c>
-      <c r="C258" s="6">
-        <v>40.861156907301101</v>
+      <c r="B258" s="4">
+        <v>29395.222594860901</v>
+      </c>
+      <c r="C258" s="5">
+        <v>41.182176097369698</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="5">
-        <v>29395.222594860901</v>
-      </c>
-      <c r="C259" s="6">
-        <v>41.182176097369698</v>
+      <c r="B259" s="4">
+        <v>29582.1524981615</v>
+      </c>
+      <c r="C259" s="5">
+        <v>41.549055171733798</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="5">
-        <v>29582.1524981615</v>
-      </c>
-      <c r="C260" s="6">
-        <v>41.549055171733798</v>
+      <c r="B260" s="4">
+        <v>28866.920843473799</v>
+      </c>
+      <c r="C260" s="5">
+        <v>42.007654014688903</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="5">
-        <v>28866.920843473799</v>
-      </c>
-      <c r="C261" s="6">
-        <v>42.007654014688903</v>
+      <c r="B261" s="4">
+        <v>29265.139105704398</v>
+      </c>
+      <c r="C261" s="5">
+        <v>42.3286732047575</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="5">
-        <v>29265.139105704398</v>
-      </c>
-      <c r="C262" s="6">
-        <v>42.3286732047575</v>
+      <c r="B262" s="4">
+        <v>29715.202935334</v>
+      </c>
+      <c r="C262" s="5">
+        <v>42.741412163417102</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="5">
-        <v>29715.202935334</v>
-      </c>
-      <c r="C263" s="6">
-        <v>42.741412163417102</v>
+      <c r="B263" s="4">
+        <v>30247.866704292599</v>
+      </c>
+      <c r="C263" s="5">
+        <v>42.833131932008101</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="5">
-        <v>30247.866704292599</v>
-      </c>
-      <c r="C264" s="6">
-        <v>42.833131932008101</v>
+      <c r="B264" s="4">
+        <v>31001.375503716099</v>
+      </c>
+      <c r="C264" s="5">
+        <v>42.970711584894701</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="5">
-        <v>31001.375503716099</v>
-      </c>
-      <c r="C265" s="6">
-        <v>42.970711584894701</v>
+      <c r="B265" s="4">
+        <v>30074.509985740999</v>
+      </c>
+      <c r="C265" s="5">
+        <v>43.108291237781202</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="5">
-        <v>30074.509985740999</v>
-      </c>
-      <c r="C266" s="6">
-        <v>43.108291237781202</v>
+      <c r="B266" s="4">
+        <v>30097.362269757101</v>
+      </c>
+      <c r="C266" s="5">
+        <v>43.245870890667703</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="5">
-        <v>30097.362269757101</v>
-      </c>
-      <c r="C267" s="6">
-        <v>43.245870890667703</v>
+      <c r="B267" s="4">
+        <v>30060.764491362101</v>
+      </c>
+      <c r="C267" s="5">
+        <v>43.383450543554297</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="5">
-        <v>30060.764491362101</v>
-      </c>
-      <c r="C268" s="6">
-        <v>43.383450543554297</v>
+      <c r="B268" s="4">
+        <v>29943.506689305999</v>
+      </c>
+      <c r="C268" s="5">
+        <v>43.337590659258801</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="5">
-        <v>29943.506689305999</v>
-      </c>
-      <c r="C269" s="6">
-        <v>43.337590659258801</v>
+      <c r="B269" s="4">
+        <v>31555.856316941601</v>
+      </c>
+      <c r="C269" s="5">
+        <v>43.521030196440798</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="5">
-        <v>31555.856316941601</v>
-      </c>
-      <c r="C270" s="6">
-        <v>43.521030196440798</v>
+      <c r="B270" s="4">
+        <v>30914.357026325699</v>
+      </c>
+      <c r="C270" s="5">
+        <v>43.9337691551004</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="5">
-        <v>30914.357026325699</v>
-      </c>
-      <c r="C271" s="6">
-        <v>43.9337691551004</v>
+      <c r="B271" s="4">
+        <v>30671.3684785357</v>
+      </c>
+      <c r="C271" s="5">
+        <v>44.484087766646603</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="5">
-        <v>30671.3684785357</v>
-      </c>
-      <c r="C272" s="6">
-        <v>44.484087766646603</v>
+      <c r="B272" s="4">
+        <v>31226.727689778902</v>
+      </c>
+      <c r="C272" s="5">
+        <v>44.713387188124102</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="5">
-        <v>31226.727689778902</v>
-      </c>
-      <c r="C273" s="6">
-        <v>44.713387188124102</v>
+      <c r="B273" s="4">
+        <v>31232.4459871691</v>
+      </c>
+      <c r="C273" s="5">
+        <v>44.8051069567151</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="5">
-        <v>31232.4459871691</v>
-      </c>
-      <c r="C274" s="6">
-        <v>44.8051069567151</v>
+      <c r="B274" s="4">
+        <v>30992.618151730301</v>
+      </c>
+      <c r="C274" s="5">
+        <v>44.896826725306198</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="5">
-        <v>30992.618151730301</v>
-      </c>
-      <c r="C275" s="6">
+      <c r="B275" s="4">
+        <v>31711.481563777899</v>
+      </c>
+      <c r="C275" s="5">
+        <v>45.034406378192699</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="4">
+        <v>34005.803949039597</v>
+      </c>
+      <c r="C276" s="5">
+        <v>44.942686609601701</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="4">
+        <v>33957.354762222298</v>
+      </c>
+      <c r="C277" s="5">
+        <v>44.759247072419598</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" s="4">
+        <v>33935.326568344499</v>
+      </c>
+      <c r="C278" s="5">
+        <v>44.850966841010703</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="4">
+        <v>34232.185348865598</v>
+      </c>
+      <c r="C279" s="5">
         <v>44.896826725306198</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276" s="5">
-        <v>31711.481563777899</v>
-      </c>
-      <c r="C276" s="6">
-        <v>45.034406378192699</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B277" s="5">
-        <v>34005.803949039597</v>
-      </c>
-      <c r="C277" s="6">
-        <v>44.942686609601701</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B278" s="5">
-        <v>33957.354762222298</v>
-      </c>
-      <c r="C278" s="6">
-        <v>44.759247072419598</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B279" s="5">
-        <v>33935.326568344499</v>
-      </c>
-      <c r="C279" s="6">
-        <v>44.850966841010703</v>
-      </c>
-    </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="5">
-        <v>34232.185348865598</v>
-      </c>
-      <c r="C280" s="6">
+      <c r="B280" s="4">
+        <v>34260.600326320098</v>
+      </c>
+      <c r="C280" s="5">
         <v>44.896826725306198</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="5">
-        <v>34260.600326320098</v>
-      </c>
-      <c r="C281" s="6">
-        <v>44.896826725306198</v>
+      <c r="B281" s="4">
+        <v>34172.809345803602</v>
+      </c>
+      <c r="C281" s="5">
+        <v>45.217845915374802</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="5">
-        <v>34172.809345803602</v>
-      </c>
-      <c r="C282" s="6">
-        <v>45.217845915374802</v>
+      <c r="B282" s="4">
+        <v>33930.600563388703</v>
+      </c>
+      <c r="C282" s="5">
+        <v>45.493005221147797</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="5">
-        <v>33930.600563388703</v>
-      </c>
-      <c r="C283" s="6">
-        <v>45.493005221147797</v>
+      <c r="B283" s="4">
+        <v>33876.658313809203</v>
+      </c>
+      <c r="C283" s="5">
+        <v>45.630584874034398</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="5">
-        <v>33876.658313809203</v>
-      </c>
-      <c r="C284" s="6">
-        <v>45.630584874034398</v>
+      <c r="B284" s="4">
+        <v>33372.378987617798</v>
+      </c>
+      <c r="C284" s="5">
+        <v>45.814024411216401</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="5">
-        <v>33372.378987617798</v>
-      </c>
-      <c r="C285" s="6">
-        <v>45.814024411216401</v>
+      <c r="B285" s="4">
+        <v>32623.859307258899</v>
+      </c>
+      <c r="C285" s="5">
+        <v>45.951604064102902</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="5">
-        <v>32623.859307258899</v>
-      </c>
-      <c r="C286" s="6">
-        <v>45.951604064102902</v>
+      <c r="B286" s="4">
+        <v>33066.393222535298</v>
+      </c>
+      <c r="C286" s="5">
+        <v>46.180903485580501</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="5">
-        <v>33066.393222535298</v>
-      </c>
-      <c r="C287" s="6">
-        <v>46.180903485580501</v>
+      <c r="B287" s="4">
+        <v>33273.034124819897</v>
+      </c>
+      <c r="C287" s="5">
+        <v>46.318483138467002</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="5">
-        <v>33273.034124819897</v>
-      </c>
-      <c r="C288" s="6">
-        <v>46.318483138467002</v>
+      <c r="B288" s="4">
+        <v>33654.8219650135</v>
+      </c>
+      <c r="C288" s="5">
+        <v>46.4102029070581</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="5">
-        <v>33654.8219650135</v>
-      </c>
-      <c r="C289" s="6">
-        <v>46.4102029070581</v>
+      <c r="B289" s="4">
+        <v>33747.779423480999</v>
+      </c>
+      <c r="C289" s="5">
+        <v>46.456062791353602</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="5">
-        <v>33747.779423480999</v>
-      </c>
-      <c r="C290" s="6">
-        <v>46.456062791353602</v>
+      <c r="B290" s="4">
+        <v>33887.787831269801</v>
+      </c>
+      <c r="C290" s="5">
+        <v>46.731222097126597</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="5">
-        <v>33887.787831269801</v>
-      </c>
-      <c r="C291" s="6">
-        <v>46.731222097126597</v>
+      <c r="B291" s="4">
+        <v>34818.178119990996</v>
+      </c>
+      <c r="C291" s="5">
+        <v>46.960521518604203</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="5">
-        <v>34818.178119990996</v>
-      </c>
-      <c r="C292" s="6">
-        <v>46.960521518604203</v>
+      <c r="B292" s="4">
+        <v>34974.739831054198</v>
+      </c>
+      <c r="C292" s="5">
+        <v>47.052241287195201</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="5">
-        <v>34974.739831054198</v>
-      </c>
-      <c r="C293" s="6">
-        <v>47.052241287195201</v>
+      <c r="B293" s="4">
+        <v>34584.685881553698</v>
+      </c>
+      <c r="C293" s="5">
+        <v>47.2815407086728</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="5">
-        <v>34584.685881553698</v>
-      </c>
-      <c r="C294" s="6">
-        <v>47.2815407086728</v>
+      <c r="B294" s="4">
+        <v>34712.807620076899</v>
+      </c>
+      <c r="C294" s="5">
+        <v>47.419120361559301</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="5">
-        <v>34712.807620076899</v>
-      </c>
-      <c r="C295" s="6">
-        <v>47.419120361559301</v>
+      <c r="B295" s="4">
+        <v>34547.527837645597</v>
+      </c>
+      <c r="C295" s="5">
+        <v>47.556700014445902</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="5">
-        <v>34547.527837645597</v>
-      </c>
-      <c r="C296" s="6">
-        <v>47.556700014445902</v>
+      <c r="B296" s="4">
+        <v>34391.353701170301</v>
+      </c>
+      <c r="C296" s="5">
+        <v>47.740139551627898</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="5">
-        <v>34391.353701170301</v>
-      </c>
-      <c r="C297" s="6">
-        <v>47.740139551627898</v>
+      <c r="B297" s="4">
+        <v>34760.1544467489</v>
+      </c>
+      <c r="C297" s="5">
+        <v>47.923579088810001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="5">
-        <v>34760.1544467489</v>
-      </c>
-      <c r="C298" s="6">
-        <v>47.923579088810001</v>
+      <c r="B298" s="4">
+        <v>34306.836163836102</v>
+      </c>
+      <c r="C298" s="5">
+        <v>48.152878510287501</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="5">
-        <v>34306.836163836102</v>
-      </c>
-      <c r="C299" s="6">
-        <v>48.152878510287501</v>
+      <c r="B299" s="4">
+        <v>34570.056344176097</v>
+      </c>
+      <c r="C299" s="5">
+        <v>48.290458163174101</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="5">
-        <v>34570.056344176097</v>
-      </c>
-      <c r="C300" s="6">
+      <c r="B300" s="4">
+        <v>34727.422094047099</v>
+      </c>
+      <c r="C300" s="5">
         <v>48.290458163174101</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="5">
-        <v>34727.422094047099</v>
-      </c>
-      <c r="C301" s="6">
+      <c r="B301" s="4">
+        <v>34933.779881376802</v>
+      </c>
+      <c r="C301" s="5">
         <v>48.290458163174101</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="5">
-        <v>34933.779881376802</v>
-      </c>
-      <c r="C302" s="6">
-        <v>48.290458163174101</v>
+      <c r="B302" s="4">
+        <v>34379.673638195003</v>
+      </c>
+      <c r="C302" s="5">
+        <v>48.382177931765099</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="5">
-        <v>34379.673638195003</v>
-      </c>
-      <c r="C303" s="6">
-        <v>48.382177931765099</v>
+      <c r="B303" s="4">
+        <v>34272.413124820101</v>
+      </c>
+      <c r="C303" s="5">
+        <v>48.611477353242599</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="5">
-        <v>34272.413124820101</v>
-      </c>
-      <c r="C304" s="6">
-        <v>48.611477353242599</v>
+      <c r="B304" s="4">
+        <v>35493.010722996703</v>
+      </c>
+      <c r="C304" s="5">
+        <v>48.794916890424702</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="5">
-        <v>35493.010722996703</v>
-      </c>
-      <c r="C305" s="6">
-        <v>48.794916890424702</v>
+      <c r="B305" s="4">
+        <v>35493.034462935299</v>
+      </c>
+      <c r="C305" s="5">
+        <v>49.024216311902201</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="5">
-        <v>35493.034462935299</v>
-      </c>
-      <c r="C306" s="6">
-        <v>49.024216311902201</v>
+      <c r="B306" s="4">
+        <v>35782.075166319199</v>
+      </c>
+      <c r="C306" s="5">
+        <v>49.207655849084297</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="5">
-        <v>35782.075166319199</v>
-      </c>
-      <c r="C307" s="6">
-        <v>49.207655849084297</v>
+      <c r="B307" s="4">
+        <v>36087.304675957297</v>
+      </c>
+      <c r="C307" s="5">
+        <v>49.345235501970798</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="5">
-        <v>36087.304675957297</v>
-      </c>
-      <c r="C308" s="6">
-        <v>49.345235501970798</v>
+      <c r="B308" s="4">
+        <v>37070.863544886801</v>
+      </c>
+      <c r="C308" s="5">
+        <v>49.436955270561803</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="5">
-        <v>37070.863544886801</v>
-      </c>
-      <c r="C309" s="6">
-        <v>49.436955270561803</v>
+      <c r="B309" s="4">
+        <v>37153.6243684254</v>
+      </c>
+      <c r="C309" s="5">
+        <v>49.528675039152901</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="5">
-        <v>37153.6243684254</v>
-      </c>
-      <c r="C310" s="6">
-        <v>49.528675039152901</v>
+      <c r="B310" s="4">
+        <v>38293.995031411199</v>
+      </c>
+      <c r="C310" s="5">
+        <v>49.666254692039402</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="5">
-        <v>38293.995031411199</v>
-      </c>
-      <c r="C311" s="6">
-        <v>49.666254692039402</v>
+      <c r="B311" s="4">
+        <v>41656.727093469402</v>
+      </c>
+      <c r="C311" s="5">
+        <v>49.849694229221498</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="5">
-        <v>41656.727093469402</v>
-      </c>
-      <c r="C312" s="6">
-        <v>49.849694229221498</v>
+      <c r="B312" s="4">
+        <v>42850.704753159298</v>
+      </c>
+      <c r="C312" s="5">
+        <v>49.987273882107999</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="5">
-        <v>42850.704753159298</v>
-      </c>
-      <c r="C313" s="6">
-        <v>49.987273882107999</v>
+      <c r="B313" s="4">
+        <v>43185.422231985904</v>
+      </c>
+      <c r="C313" s="5">
+        <v>50.1248535349945</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="5">
-        <v>43185.422231985904</v>
-      </c>
-      <c r="C314" s="6">
+      <c r="B314" s="4">
+        <v>43672.464371034599</v>
+      </c>
+      <c r="C314" s="5">
+        <v>50.262433187881101</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="4">
+        <v>45504.373024954599</v>
+      </c>
+      <c r="C315" s="5">
         <v>50.1248535349945</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B315" s="5">
-        <v>43672.464371034599</v>
-      </c>
-      <c r="C315" s="6">
-        <v>50.262433187881101</v>
-      </c>
-    </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="5">
-        <v>45504.373024954599</v>
-      </c>
-      <c r="C316" s="6">
-        <v>50.1248535349945</v>
+      <c r="B316" s="4">
+        <v>44918.590315640897</v>
+      </c>
+      <c r="C316" s="5">
+        <v>49.895554113517001</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="5">
-        <v>44918.590315640897</v>
-      </c>
-      <c r="C317" s="6">
-        <v>49.895554113517001</v>
+      <c r="B317" s="4">
+        <v>46491.946141091503</v>
+      </c>
+      <c r="C317" s="5">
+        <v>49.803834344925903</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="5">
-        <v>46491.946141091503</v>
-      </c>
-      <c r="C318" s="6">
-        <v>49.803834344925903</v>
+      <c r="B318" s="4">
+        <v>45249.155101854201</v>
+      </c>
+      <c r="C318" s="5">
+        <v>49.941413997812496</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="5">
-        <v>45249.155101854201</v>
-      </c>
-      <c r="C319" s="6">
-        <v>49.941413997812496</v>
+      <c r="B319" s="4">
+        <v>46594.626452820899</v>
+      </c>
+      <c r="C319" s="5">
+        <v>50.216573303585598</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="5">
-        <v>46594.626452820899</v>
-      </c>
-      <c r="C320" s="6">
+      <c r="B320" s="4">
+        <v>47430.020904778503</v>
+      </c>
+      <c r="C320" s="5">
         <v>50.216573303585598</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="5">
-        <v>47430.020904778503</v>
-      </c>
-      <c r="C321" s="6">
-        <v>50.216573303585598</v>
+      <c r="B321" s="4">
+        <v>48161.276545415101</v>
+      </c>
+      <c r="C321" s="5">
+        <v>50.308293072176603</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="5">
-        <v>48161.276545415101</v>
-      </c>
-      <c r="C322" s="6">
-        <v>50.308293072176603</v>
+      <c r="B322" s="4">
+        <v>48086.703878075998</v>
+      </c>
+      <c r="C322" s="5">
+        <v>50.537592493654103</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="5">
-        <v>48086.703878075998</v>
-      </c>
-      <c r="C323" s="6">
-        <v>50.537592493654103</v>
+      <c r="B323" s="4">
+        <v>47088.7680751843</v>
+      </c>
+      <c r="C323" s="5">
+        <v>50.583452377949598</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="5">
-        <v>47088.7680751843</v>
-      </c>
-      <c r="C324" s="6">
-        <v>50.583452377949598</v>
+      <c r="B324" s="4">
+        <v>47824.609314484798</v>
+      </c>
+      <c r="C324" s="5">
+        <v>50.6293122622452</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="5">
-        <v>47824.609314484798</v>
-      </c>
-      <c r="C325" s="6">
-        <v>50.6293122622452</v>
+      <c r="B325" s="4">
+        <v>48516.484728389201</v>
+      </c>
+      <c r="C325" s="5">
+        <v>50.675172146540703</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="4" t="s">
+      <c r="A326" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="5">
-        <v>48516.484728389201</v>
-      </c>
-      <c r="C326" s="6">
-        <v>50.675172146540703</v>
+      <c r="B326" s="4">
+        <v>49386.844466979397</v>
+      </c>
+      <c r="C326" s="5">
+        <v>50.9961913366093</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="4" t="s">
+      <c r="A327" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="5">
-        <v>49386.844466979397</v>
-      </c>
-      <c r="C327" s="6">
-        <v>50.9961913366093</v>
+      <c r="B327" s="4">
+        <v>49359.984425172603</v>
+      </c>
+      <c r="C327" s="5">
+        <v>51.179630873791297</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="5">
-        <v>49359.984425172603</v>
-      </c>
-      <c r="C328" s="6">
-        <v>51.179630873791297</v>
+      <c r="B328" s="4">
+        <v>48823.946864996098</v>
+      </c>
+      <c r="C328" s="5">
+        <v>51.408930295268902</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="5">
-        <v>48823.946864996098</v>
-      </c>
-      <c r="C329" s="6">
-        <v>51.408930295268902</v>
+      <c r="B329" s="4">
+        <v>46591.7877315359</v>
+      </c>
+      <c r="C329" s="5">
+        <v>51.684089601041897</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="5">
-        <v>46591.7877315359</v>
-      </c>
-      <c r="C330" s="6">
-        <v>51.684089601041897</v>
+      <c r="B330" s="4">
+        <v>45912.919909938901</v>
+      </c>
+      <c r="C330" s="5">
+        <v>51.867529138224</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="5">
-        <v>45912.919909938901</v>
-      </c>
-      <c r="C331" s="6">
-        <v>51.867529138224</v>
+      <c r="B331" s="4">
+        <v>45139.507016333097</v>
+      </c>
+      <c r="C331" s="5">
+        <v>52.050968675405997</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="5">
-        <v>45139.507016333097</v>
-      </c>
-      <c r="C332" s="6">
-        <v>52.050968675405997</v>
+      <c r="B332" s="4">
+        <v>44318.337067403299</v>
+      </c>
+      <c r="C332" s="5">
+        <v>52.188548328292597</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="5">
-        <v>44318.337067403299</v>
-      </c>
-      <c r="C333" s="6">
-        <v>52.188548328292597</v>
+      <c r="B333" s="4">
+        <v>45914.526560802697</v>
+      </c>
+      <c r="C333" s="5">
+        <v>52.463707634065599</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="5">
-        <v>45914.526560802697</v>
-      </c>
-      <c r="C334" s="6">
-        <v>52.463707634065599</v>
+      <c r="B334" s="4">
+        <v>45070.6217513148</v>
+      </c>
+      <c r="C334" s="5">
+        <v>52.738866939838701</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B335" s="5">
-        <v>45070.6217513148</v>
-      </c>
-      <c r="C335" s="6">
-        <v>52.738866939838701</v>
+      <c r="B335" s="4">
+        <v>46200.497390844801</v>
+      </c>
+      <c r="C335" s="5">
+        <v>52.876446592725202</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B336" s="5">
-        <v>46200.497390844801</v>
-      </c>
-      <c r="C336" s="6">
-        <v>52.876446592725202</v>
+      <c r="B336" s="4">
+        <v>46779.164223599102</v>
+      </c>
+      <c r="C336" s="5">
+        <v>52.922306477020797</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B337" s="5">
-        <v>46779.164223599102</v>
-      </c>
-      <c r="C337" s="6">
+      <c r="B337" s="4">
+        <v>45798.2972378669</v>
+      </c>
+      <c r="C337" s="5">
         <v>52.922306477020797</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="5">
-        <v>45798.2972378669</v>
-      </c>
-      <c r="C338" s="6">
-        <v>52.922306477020797</v>
+      <c r="B338" s="4">
+        <v>42954.416593791</v>
+      </c>
+      <c r="C338" s="5">
+        <v>53.059886129907298</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B339" s="5">
-        <v>42954.416593791</v>
-      </c>
-      <c r="C339" s="6">
-        <v>53.059886129907298</v>
+      <c r="B339" s="4">
+        <v>43063.988431439197</v>
+      </c>
+      <c r="C339" s="5">
+        <v>53.197465782793799</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B340" s="5">
-        <v>43063.988431439197</v>
-      </c>
-      <c r="C340" s="6">
-        <v>53.197465782793799</v>
+      <c r="B340" s="4">
+        <v>43185.997891319697</v>
+      </c>
+      <c r="C340" s="5">
+        <v>53.426765204271398</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B341" s="5">
-        <v>43185.997891319697</v>
-      </c>
-      <c r="C341" s="6">
-        <v>53.426765204271398</v>
+      <c r="B341" s="4">
+        <v>42730.054813481998</v>
+      </c>
+      <c r="C341" s="5">
+        <v>53.7019245100444</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B342" s="5">
-        <v>42730.054813481998</v>
-      </c>
-      <c r="C342" s="6">
-        <v>53.7019245100444</v>
+      <c r="B342" s="4">
+        <v>41948.6450613493</v>
+      </c>
+      <c r="C342" s="5">
+        <v>53.885364047226503</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B343" s="5">
-        <v>41948.6450613493</v>
-      </c>
-      <c r="C343" s="6">
-        <v>53.885364047226503</v>
+      <c r="B343" s="4">
+        <v>41027.821756225399</v>
+      </c>
+      <c r="C343" s="5">
+        <v>54.114663468704101</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B344" s="5">
-        <v>41027.821756225399</v>
-      </c>
-      <c r="C344" s="6">
-        <v>54.114663468704101</v>
+      <c r="B344" s="4">
+        <v>43875.845407872199</v>
+      </c>
+      <c r="C344" s="5">
+        <v>54.343962890181601</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B345" s="5">
-        <v>43875.845407872199</v>
-      </c>
-      <c r="C345" s="6">
-        <v>54.343962890181601</v>
+      <c r="B345" s="4">
+        <v>47778.6531064421</v>
+      </c>
+      <c r="C345" s="5">
+        <v>54.573262311659199</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B346" s="5">
-        <v>47778.6531064421</v>
-      </c>
-      <c r="C346" s="6">
-        <v>54.573262311659199</v>
+      <c r="B346" s="4">
+        <v>47787.965727263298</v>
+      </c>
+      <c r="C346" s="5">
+        <v>54.940141386023299</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B347" s="5">
-        <v>47787.965727263298</v>
-      </c>
-      <c r="C347" s="6">
-        <v>54.940141386023299</v>
+      <c r="B347" s="4">
+        <v>50204.334311363498</v>
+      </c>
+      <c r="C347" s="5">
+        <v>55.123580923205303</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="4" t="s">
+      <c r="A348" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B348" s="5">
-        <v>50204.334311363498</v>
-      </c>
-      <c r="C348" s="6">
-        <v>55.123580923205303</v>
+      <c r="B348" s="4">
+        <v>48943.466353313997</v>
+      </c>
+      <c r="C348" s="5">
+        <v>55.169440807500798</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B349" s="5">
-        <v>48943.466353313997</v>
-      </c>
-      <c r="C349" s="6">
-        <v>55.169440807500798</v>
+      <c r="B349" s="4">
+        <v>47801.652783571801</v>
+      </c>
+      <c r="C349" s="5">
+        <v>55.261160576091903</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="4" t="s">
+      <c r="A350" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B350" s="5">
-        <v>47801.652783571801</v>
-      </c>
-      <c r="C350" s="6">
-        <v>55.261160576091903</v>
+      <c r="B350" s="4">
+        <v>48190.020712619</v>
+      </c>
+      <c r="C350" s="5">
+        <v>55.536319881864898</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="4" t="s">
+      <c r="A351" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B351" s="5">
-        <v>48190.020712619</v>
-      </c>
-      <c r="C351" s="6">
-        <v>55.536319881864898</v>
+      <c r="B351" s="4">
+        <v>49372.827783063804</v>
+      </c>
+      <c r="C351" s="5">
+        <v>55.765619303342497</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="4" t="s">
+      <c r="A352" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B352" s="5">
-        <v>49372.827783063804</v>
-      </c>
-      <c r="C352" s="6">
-        <v>55.765619303342497</v>
+      <c r="B352" s="4">
+        <v>49854.249298706003</v>
+      </c>
+      <c r="C352" s="5">
+        <v>56.086638493411101</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B353" s="5">
-        <v>49854.249298706003</v>
-      </c>
-      <c r="C353" s="6">
-        <v>56.086638493411101</v>
+      <c r="B353" s="4">
+        <v>50303.485987483997</v>
+      </c>
+      <c r="C353" s="5">
+        <v>56.453517567775201</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="4" t="s">
+      <c r="A354" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B354" s="5">
-        <v>50303.485987483997</v>
-      </c>
-      <c r="C354" s="6">
-        <v>56.453517567775201</v>
+      <c r="B354" s="4">
+        <v>54940.548936699503</v>
+      </c>
+      <c r="C354" s="5">
+        <v>56.774536757843798</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="4" t="s">
+      <c r="A355" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B355" s="5">
-        <v>54940.548936699503</v>
-      </c>
-      <c r="C355" s="6">
-        <v>56.774536757843798</v>
+      <c r="B355" s="4">
+        <v>60503.412503739099</v>
+      </c>
+      <c r="C355" s="5">
+        <v>56.912116410730299</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="4" t="s">
+      <c r="A356" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B356" s="5">
-        <v>60503.412503739099</v>
-      </c>
-      <c r="C356" s="6">
-        <v>56.912116410730299</v>
+      <c r="B356" s="4">
+        <v>63462.210505986797</v>
+      </c>
+      <c r="C356" s="5">
+        <v>57.0496960636168</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B357" s="5">
-        <v>63462.210505986797</v>
-      </c>
-      <c r="C357" s="6">
-        <v>57.0496960636168</v>
+      <c r="B357" s="4">
+        <v>62363.845991797803</v>
+      </c>
+      <c r="C357" s="5">
+        <v>57.141415832207798</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B358" s="5">
-        <v>62363.845991797803</v>
-      </c>
-      <c r="C358" s="6">
-        <v>57.141415832207798</v>
+      <c r="B358" s="4">
+        <v>68417.495744653599</v>
+      </c>
+      <c r="C358" s="5">
+        <v>57.324855369389901</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="4" t="s">
+      <c r="A359" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B359" s="5">
-        <v>68417.495744653599</v>
-      </c>
-      <c r="C359" s="6">
-        <v>57.324855369389901</v>
+      <c r="B359" s="4">
+        <v>70808.689360832097</v>
+      </c>
+      <c r="C359" s="5">
+        <v>57.600014675163003</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="4" t="s">
+      <c r="A360" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B360" s="5">
-        <v>70808.689360832097</v>
-      </c>
-      <c r="C360" s="6">
-        <v>57.600014675163003</v>
+      <c r="B360" s="4">
+        <v>72559.751651493207</v>
+      </c>
+      <c r="C360" s="5">
+        <v>57.737594328049497</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="4" t="s">
+      <c r="A361" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B361" s="5">
-        <v>72559.751651493207</v>
-      </c>
-      <c r="C361" s="6">
-        <v>57.737594328049497</v>
+      <c r="B361" s="4">
+        <v>74608.633269377402</v>
+      </c>
+      <c r="C361" s="5">
+        <v>57.829314096640502</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="4" t="s">
+      <c r="A362" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="5">
-        <v>74608.633269377402</v>
-      </c>
-      <c r="C362" s="6">
-        <v>57.829314096640502</v>
+      <c r="B362" s="4">
+        <v>75506.361462393004</v>
+      </c>
+      <c r="C362" s="5">
+        <v>58.4254925924822</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="5">
-        <v>75506.361462393004</v>
-      </c>
-      <c r="C363" s="6">
-        <v>58.4254925924822</v>
+      <c r="B363" s="4">
+        <v>74173.524867989603</v>
+      </c>
+      <c r="C363" s="5">
+        <v>58.700651898255302</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="5">
-        <v>74173.524867989603</v>
-      </c>
-      <c r="C364" s="6">
-        <v>58.700651898255302</v>
+      <c r="B364" s="4">
+        <v>76303.028540208703</v>
+      </c>
+      <c r="C364" s="5">
+        <v>59.021671088323799</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="4" t="s">
+      <c r="A365" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="5">
-        <v>76303.028540208703</v>
-      </c>
-      <c r="C365" s="6">
-        <v>59.021671088323799</v>
+      <c r="B365" s="4">
+        <v>76283.210609948306</v>
+      </c>
+      <c r="C365" s="5">
+        <v>59.113390856914897</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="5">
-        <v>76283.210609948306</v>
-      </c>
-      <c r="C366" s="6">
-        <v>59.113390856914897</v>
+      <c r="B366" s="4">
+        <v>77028.366837665206</v>
+      </c>
+      <c r="C366" s="5">
+        <v>59.250970509801398</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="5">
-        <v>77028.366837665206</v>
-      </c>
-      <c r="C367" s="6">
-        <v>59.250970509801398</v>
+      <c r="B367" s="4">
+        <v>77298.843253547893</v>
+      </c>
+      <c r="C367" s="5">
+        <v>59.571989699870002</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="4" t="s">
+      <c r="A368" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B368" s="5">
-        <v>77298.843253547893</v>
-      </c>
-      <c r="C368" s="6">
-        <v>59.571989699870002</v>
+      <c r="B368" s="4">
+        <v>77906.286646819499</v>
+      </c>
+      <c r="C368" s="5">
+        <v>59.801289121347502</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B369" s="5">
-        <v>77906.286646819499</v>
-      </c>
-      <c r="C369" s="6">
-        <v>59.801289121347502</v>
+      <c r="B369" s="4">
+        <v>78908.838357379398</v>
+      </c>
+      <c r="C369" s="5">
+        <v>60.351607732893697</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="4" t="s">
+      <c r="A370" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B370" s="5">
-        <v>78908.838357379398</v>
-      </c>
-      <c r="C370" s="6">
-        <v>60.351607732893697</v>
+      <c r="B370" s="4">
+        <v>80024.1661328505</v>
+      </c>
+      <c r="C370" s="5">
+        <v>60.856066460144298</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="4" t="s">
+      <c r="A371" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B371" s="5">
-        <v>80024.1661328505</v>
-      </c>
-      <c r="C371" s="6">
-        <v>60.856066460144298</v>
+      <c r="B371" s="4">
+        <v>82852.196531791895</v>
+      </c>
+      <c r="C371" s="5">
+        <v>61.222945534508398</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="4" t="s">
+      <c r="A372" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B372" s="5">
-        <v>82852.196531791895</v>
-      </c>
-      <c r="C372" s="6">
-        <v>61.222945534508398</v>
+      <c r="B372" s="4">
+        <v>83059.402773616297</v>
+      </c>
+      <c r="C372" s="5">
+        <v>61.360525187394998</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="4" t="s">
+      <c r="A373" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B373" s="5">
-        <v>83059.402773616297</v>
-      </c>
-      <c r="C373" s="6">
+      <c r="B373" s="4">
+        <v>83316.214607844493</v>
+      </c>
+      <c r="C373" s="5">
         <v>61.360525187394998</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" s="5">
-        <v>83316.214607844493</v>
-      </c>
-      <c r="C374" s="6">
-        <v>61.360525187394998</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>